--- a/Formato_bonf_rules.xlsx
+++ b/Formato_bonf_rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lavagna\moduloETE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{367A318C-09CC-4C62-898F-B95CEB75FD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE951A28-45A8-42C4-9681-8F0D47B27469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38A6D33E-95C0-4B38-A97A-F9BA81506A89}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Codigo de Producto</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>00123B</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
   </si>
 </sst>
 </file>
@@ -153,8 +156,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="2" xr16:uid="{1574F80B-286E-44D3-B5A2-1807487B4A74}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="11" unboundColumnsRight="1">
+    <queryTableFields count="9">
       <queryTableField id="2" name="Base_Product_Code" tableColumnId="2"/>
       <queryTableField id="3" name="Base_Product_Quantity" tableColumnId="3"/>
       <queryTableField id="4" name="Bonification_Product_Code" tableColumnId="4"/>
@@ -163,6 +166,7 @@
       <queryTableField id="6" name="Cost" tableColumnId="6"/>
       <queryTableField id="7" name="Start_Date" tableColumnId="7"/>
       <queryTableField id="8" name="End_Date" tableColumnId="8"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="1"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="index"/>
@@ -172,8 +176,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CD04270-84C0-4769-9A1E-537BBC453BFD}" name="Nuevo_documento_de_texto__2" displayName="Nuevo_documento_de_texto__2" ref="A1:H2" tableType="queryTable" totalsRowShown="0">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CD04270-84C0-4769-9A1E-537BBC453BFD}" name="Nuevo_documento_de_texto__2" displayName="Nuevo_documento_de_texto__2" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{1B0FE54D-A7EE-4838-86A6-F9701D840962}" uniqueName="2" name="Codigo de Producto" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{CAC070B4-1660-42B9-9001-07F2A6D240C2}" uniqueName="3" name="Cantidad de Producto" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{87AD2380-5FED-43BE-A0FE-C82016452319}" uniqueName="4" name="Codigo de Bonificacion" queryTableFieldId="4" dataDxfId="3"/>
@@ -182,6 +186,7 @@
     <tableColumn id="6" xr3:uid="{AC5C8B40-B701-4138-80FD-F011E2EB4464}" uniqueName="6" name="Costo" queryTableFieldId="6" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{5A95A422-9886-40C4-9742-3DCDC5DD0FBC}" uniqueName="7" name="Fecha Inicio" queryTableFieldId="7" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{159F825A-0D3C-4880-B175-EAF0E5A21AFF}" uniqueName="8" name="Fecha Fin" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{28AD4F82-6EA7-4D48-9AB7-46FB9354AA76}" uniqueName="1" name="Sucursal" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -484,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F836981-BB29-4EEB-B954-8E4EE4E52FE4}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I13" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +507,7 @@
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +532,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -552,6 +560,9 @@
       </c>
       <c r="H2" s="2">
         <v>45535</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
